--- a/cell_size/H1299_Ad-gradient_Metformin/merged.xlsx
+++ b/cell_size/H1299_Ad-gradient_Metformin/merged.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/krdav/Google Drive/MCB/Sullivan_lab/lab-work/cell_size/H1299_Ad-gradient_Metformin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0712F06D-0513-6E46-8147-91DF33B02235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AECCAF90-FEC7-064C-93F5-0A46AA8C71B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="26320" windowHeight="15580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5860" yWindow="2440" windowWidth="19600" windowHeight="15580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="70">
   <si>
     <t>Sample ID</t>
   </si>
@@ -241,6 +241,9 @@
   <si>
     <t>Prlfr</t>
   </si>
+  <si>
+    <t>Hard to rescue b/c with more adenine, more Hpx and more substrate for G synthesis</t>
+  </si>
 </sst>
 </file>
 
@@ -316,10 +319,10 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -4284,9 +4287,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4324,9 +4327,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4359,26 +4362,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4411,26 +4397,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4604,10 +4573,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R142"/>
+  <dimension ref="A1:AB142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L117" workbookViewId="0">
-      <selection activeCell="AE131" sqref="AE131"/>
+    <sheetView tabSelected="1" topLeftCell="L62" workbookViewId="0">
+      <selection activeCell="P66" sqref="P66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6139,7 +6108,7 @@
         <v>5635</v>
       </c>
     </row>
-    <row r="65" spans="8:16" x14ac:dyDescent="0.2">
+    <row r="65" spans="8:28" x14ac:dyDescent="0.2">
       <c r="H65" t="s">
         <v>65</v>
       </c>
@@ -6159,7 +6128,7 @@
         <v>6360</v>
       </c>
     </row>
-    <row r="66" spans="8:16" x14ac:dyDescent="0.2">
+    <row r="66" spans="8:28" x14ac:dyDescent="0.2">
       <c r="H66" t="s">
         <v>65</v>
       </c>
@@ -6179,7 +6148,7 @@
         <v>6107</v>
       </c>
     </row>
-    <row r="67" spans="8:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="8:28" x14ac:dyDescent="0.2">
       <c r="H67" t="s">
         <v>65</v>
       </c>
@@ -6198,8 +6167,11 @@
       <c r="O67">
         <v>7353</v>
       </c>
-    </row>
-    <row r="68" spans="8:16" x14ac:dyDescent="0.2">
+      <c r="AB67" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="68" spans="8:28" x14ac:dyDescent="0.2">
       <c r="H68" t="s">
         <v>65</v>
       </c>
@@ -6219,7 +6191,7 @@
         <v>7098</v>
       </c>
     </row>
-    <row r="69" spans="8:16" x14ac:dyDescent="0.2">
+    <row r="69" spans="8:28" x14ac:dyDescent="0.2">
       <c r="H69" t="s">
         <v>65</v>
       </c>
@@ -6239,7 +6211,7 @@
         <v>7565</v>
       </c>
     </row>
-    <row r="70" spans="8:16" x14ac:dyDescent="0.2">
+    <row r="70" spans="8:28" x14ac:dyDescent="0.2">
       <c r="H70" t="s">
         <v>65</v>
       </c>
@@ -6259,7 +6231,7 @@
         <v>7702</v>
       </c>
     </row>
-    <row r="71" spans="8:16" x14ac:dyDescent="0.2">
+    <row r="71" spans="8:28" x14ac:dyDescent="0.2">
       <c r="H71" t="s">
         <v>63</v>
       </c>
@@ -6279,7 +6251,7 @@
         <v>9744</v>
       </c>
     </row>
-    <row r="72" spans="8:16" x14ac:dyDescent="0.2">
+    <row r="72" spans="8:28" x14ac:dyDescent="0.2">
       <c r="H72" t="s">
         <v>63</v>
       </c>
@@ -6299,7 +6271,7 @@
         <v>9677</v>
       </c>
     </row>
-    <row r="73" spans="8:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="8:28" x14ac:dyDescent="0.2">
       <c r="H73" t="s">
         <v>63</v>
       </c>
@@ -6319,7 +6291,7 @@
         <v>9578</v>
       </c>
     </row>
-    <row r="74" spans="8:16" x14ac:dyDescent="0.2">
+    <row r="74" spans="8:28" x14ac:dyDescent="0.2">
       <c r="H74" t="s">
         <v>63</v>
       </c>
@@ -6339,7 +6311,7 @@
         <v>9755</v>
       </c>
     </row>
-    <row r="75" spans="8:16" x14ac:dyDescent="0.2">
+    <row r="75" spans="8:28" x14ac:dyDescent="0.2">
       <c r="H75" t="s">
         <v>63</v>
       </c>
@@ -6359,7 +6331,7 @@
         <v>9415</v>
       </c>
     </row>
-    <row r="76" spans="8:16" x14ac:dyDescent="0.2">
+    <row r="76" spans="8:28" x14ac:dyDescent="0.2">
       <c r="H76" t="s">
         <v>63</v>
       </c>
@@ -6379,7 +6351,7 @@
         <v>9521</v>
       </c>
     </row>
-    <row r="77" spans="8:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="8:28" x14ac:dyDescent="0.2">
       <c r="H77" t="s">
         <v>63</v>
       </c>
@@ -6399,7 +6371,7 @@
         <v>9107</v>
       </c>
     </row>
-    <row r="78" spans="8:16" x14ac:dyDescent="0.2">
+    <row r="78" spans="8:28" x14ac:dyDescent="0.2">
       <c r="H78" t="s">
         <v>63</v>
       </c>
@@ -6419,7 +6391,7 @@
         <v>9106</v>
       </c>
     </row>
-    <row r="79" spans="8:16" x14ac:dyDescent="0.2">
+    <row r="79" spans="8:28" x14ac:dyDescent="0.2">
       <c r="H79" t="s">
         <v>63</v>
       </c>
@@ -6439,7 +6411,7 @@
         <v>8993</v>
       </c>
     </row>
-    <row r="80" spans="8:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="8:28" x14ac:dyDescent="0.2">
       <c r="H80" t="s">
         <v>63</v>
       </c>
